--- a/biology/Botanique/Jardin_Jean-Paul-L'Allier/Jardin_Jean-Paul-L'Allier.xlsx
+++ b/biology/Botanique/Jardin_Jean-Paul-L'Allier/Jardin_Jean-Paul-L'Allier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Jean-Paul-L%27Allier</t>
+          <t>Jardin_Jean-Paul-L'Allier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Jean-Paul-L'Allier, anciennement jardin de Saint-Roch, est un parc de la ville de Québec situé au sud du quartier Saint-Roch.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Jean-Paul-L%27Allier</t>
+          <t>Jardin_Jean-Paul-L'Allier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des entreprises et des résidences furent présentes sur les terrains et les anciennes rues de ce quartier. Un complexe commercial devait d'abord s'implanter à cet endroit mais ne se réalisa pas, le projet de "La Grande Place". Pendant 20 ans des terrains vagues substituaient sur ces espaces. Cependant, le maire Jean-Paul L'Allier décida de profiter du fait que l'espace n'était pas construit pour en faire un parc[1]. Aménagé à partir de 1992, le jardin de Saint-Roch est une des étapes du processus de revitalisation qu'a connu le quartier Saint-Roch du début des années 90 jusqu'au milieu des années 2000. Créé dans le but de rendre le quartier plus vivant et attractif, il a encouragé l'établissement de nombreuses entreprises et institutions ainsi que l'embellissement d'anciens édifices commerciaux et industriels[2].
-Le 14 septembre 2017, le jardin de Saint-Roch est renommé en l'honneur de Jean-Paul L'Allier, maire de Québec de 1989 à 2005[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des entreprises et des résidences furent présentes sur les terrains et les anciennes rues de ce quartier. Un complexe commercial devait d'abord s'implanter à cet endroit mais ne se réalisa pas, le projet de "La Grande Place". Pendant 20 ans des terrains vagues substituaient sur ces espaces. Cependant, le maire Jean-Paul L'Allier décida de profiter du fait que l'espace n'était pas construit pour en faire un parc. Aménagé à partir de 1992, le jardin de Saint-Roch est une des étapes du processus de revitalisation qu'a connu le quartier Saint-Roch du début des années 90 jusqu'au milieu des années 2000. Créé dans le but de rendre le quartier plus vivant et attractif, il a encouragé l'établissement de nombreuses entreprises et institutions ainsi que l'embellissement d'anciens édifices commerciaux et industriels.
+Le 14 septembre 2017, le jardin de Saint-Roch est renommé en l'honneur de Jean-Paul L'Allier, maire de Québec de 1989 à 2005.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Jean-Paul-L%27Allier</t>
+          <t>Jardin_Jean-Paul-L'Allier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En été, on y retrouve plusieurs arrangements floraux ainsi qu'un bassin artificiel.
 En englobant la place de l'Université-du-Québec, le parc est ceinturé au nord par le boulevard Charest, au sud par la côte d'Abraham, à l'ouest par la rue de la Couronne et à l'est par la rue du Parvis.
